--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2839"/>
+  <dimension ref="A1:H2823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83127,10 +83127,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83161,10 +83159,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83199,10 +83195,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83233,10 +83227,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83267,10 +83259,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83305,10 +83295,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83339,10 +83327,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83373,10 +83359,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83411,10 +83395,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83445,10 +83427,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83479,10 +83459,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83517,10 +83495,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83551,10 +83527,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83585,10 +83559,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83619,10 +83591,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83653,10 +83623,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83687,10 +83655,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83721,10 +83687,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83751,10 +83715,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83789,10 +83751,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83823,10 +83783,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83861,10 +83819,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83887,10 +83843,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83917,10 +83871,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83947,10 +83899,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83977,10 +83927,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84007,10 +83955,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84037,10 +83983,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84067,10 +84011,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84097,10 +84039,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84127,10 +84067,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84157,10 +84095,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84187,10 +84123,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84217,10 +84151,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84247,10 +84179,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84281,10 +84211,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84315,10 +84243,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84349,10 +84275,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84383,10 +84307,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84417,10 +84339,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84451,10 +84371,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84481,10 +84399,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84511,10 +84427,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84541,10 +84455,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84575,10 +84487,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84609,10 +84519,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84643,10 +84551,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84681,10 +84587,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84719,10 +84623,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84753,10 +84655,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84791,10 +84691,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84829,10 +84727,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84863,10 +84759,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84901,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84939,10 +84831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84977,10 +84867,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85011,10 +84899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85045,10 +84931,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85083,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85109,10 +84991,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85143,10 +85023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85177,10 +85055,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85211,10 +85087,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85249,10 +85123,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85283,10 +85155,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85313,10 +85183,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85343,10 +85211,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85373,10 +85239,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85403,10 +85267,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85433,10 +85295,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85463,10 +85323,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85493,10 +85351,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85523,10 +85379,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85553,10 +85407,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85601,10 +85453,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85635,10 +85485,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85669,46 +85517,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85722,31 +85584,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85756,31 +85614,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85790,31 +85644,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,21 +85674,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85850,65 +85704,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85918,127 +85760,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86050,205 +85904,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86258,91 +86088,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86356,117 +86178,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86476,55 +86310,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86536,47 +86362,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86592,23 +86414,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86622,27 +86444,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86652,73 +86482,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86728,69 +86542,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86800,55 +86602,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86857,176 +86647,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87040,23 +86810,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87070,31 +86840,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87104,31 +86866,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87138,31 +86892,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,47 +86922,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87224,17 +86982,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87250,17 +87008,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87269,112 +87027,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87384,20 +87142,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87409,26 +87163,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87448,16 +87198,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87474,23 +87228,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87500,13 +87262,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,7 +87286,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87526,7 +87296,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87540,29 +87310,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87570,33 +87340,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87610,27 +87384,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87640,25 +87406,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87672,47 +87434,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87721,24 +87467,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87754,85 +87500,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87844,81 +87578,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87930,31 +87668,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87964,27 +87698,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -87994,23 +87736,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88020,23 +87770,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88050,121 +87800,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88174,27 +87928,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88202,21 +87956,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88224,21 +87994,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88032,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,25 +88066,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88296,61 +88102,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88362,23 +88192,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88388,21 +88226,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88414,21 +88256,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88440,23 +88286,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88470,87 +88316,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88560,33 +88422,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88598,93 +88460,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88696,89 +88574,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88790,63 +88676,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88858,33 +88748,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88896,29 +88782,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88930,31 +88816,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88964,23 +88846,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -88994,23 +88876,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89024,23 +88906,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89054,12 +88936,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89070,13 +88952,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89088,53 +88970,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89148,55 +89034,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89208,73 +89090,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89284,106 +89142,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89398,69 +89228,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89470,63 +89292,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89538,165 +89360,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89708,27 +89522,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89738,27 +89556,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89768,59 +89590,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89832,57 +89666,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89896,23 +89722,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89926,7 +89752,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89936,23 +89762,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -89962,11 +89792,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89978,7 +89812,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -89988,7 +89822,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -89997,14 +89831,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90014,7 +89848,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90023,14 +89857,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90040,7 +89874,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90056,65 +89890,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90124,7 +89942,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90134,85 +89952,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90222,31 +90020,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90256,29 +90046,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90290,91 +90076,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90384,31 +90162,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90418,29 +90188,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90452,7 +90218,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90462,73 +90228,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90538,7 +90280,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90547,16 +90289,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90564,107 +90302,99 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr"/>
+      <c r="C2813" t="inlineStr"/>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2813" t="inlineStr"/>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90674,69 +90404,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
@@ -90752,17 +90494,17 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -90778,17 +90520,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -90804,47 +90546,59 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
@@ -90856,472 +90610,28 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2824">
-      <c r="A2824" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2824" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2824" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
-      <c r="F2824" t="inlineStr"/>
-      <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2825">
-      <c r="A2825" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2825" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2825" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
-      <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2826">
-      <c r="A2826" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2826" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2826" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
-      <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2827">
-      <c r="A2827" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2827" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2827" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
-      <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2828">
-      <c r="A2828" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2828" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2828" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2829">
-      <c r="A2829" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2829" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2829" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
-      <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2830">
-      <c r="A2830" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2830" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2830" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
-      <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2831">
-      <c r="A2831" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2832">
-      <c r="A2832" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2832" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2832" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
-      <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2833">
-      <c r="A2833" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2833" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2833" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
-      <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2834">
-      <c r="A2834" t="inlineStr"/>
-      <c r="B2834" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2834" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
-      <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
-      <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
-    </row>
-    <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2836" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2836" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2837" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2837" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2838" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2838" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2839">
-      <c r="A2839" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr"/>
-      <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2839" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2845"/>
+  <dimension ref="A1:H2825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83143,10 +83143,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83177,10 +83175,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83215,10 +83211,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83249,10 +83243,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83283,10 +83275,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83321,10 +83311,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83355,10 +83343,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83389,10 +83375,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83427,10 +83411,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83461,10 +83443,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83495,10 +83475,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83533,10 +83511,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83567,10 +83543,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83601,10 +83575,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83635,10 +83607,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83669,10 +83639,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83703,10 +83671,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83737,10 +83703,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83767,10 +83731,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83805,10 +83767,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83839,10 +83799,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83877,10 +83835,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83903,10 +83859,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83933,10 +83887,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83963,10 +83915,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -83993,10 +83943,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84023,10 +83971,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84053,10 +83999,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84083,10 +84027,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84113,10 +84055,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84143,10 +84083,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84173,10 +84111,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84203,10 +84139,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84233,10 +84167,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84263,10 +84195,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84297,10 +84227,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84331,10 +84259,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84365,10 +84291,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84399,10 +84323,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84433,10 +84355,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84467,10 +84387,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84497,10 +84415,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84527,10 +84443,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84557,10 +84471,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84591,10 +84503,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84625,10 +84535,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84659,10 +84567,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84697,10 +84603,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84735,10 +84639,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84769,10 +84671,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84807,10 +84707,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84845,10 +84743,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84879,10 +84775,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84917,10 +84811,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84955,10 +84847,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -84993,10 +84883,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85027,10 +84915,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85061,10 +84947,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85099,10 +84983,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85125,10 +85007,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85159,10 +85039,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85193,10 +85071,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85227,10 +85103,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85265,10 +85139,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85299,10 +85171,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85329,10 +85199,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85359,10 +85227,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85389,10 +85255,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85419,10 +85283,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85449,10 +85311,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85479,10 +85339,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85509,10 +85367,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85539,10 +85395,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85569,10 +85423,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85617,10 +85469,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85651,10 +85501,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85685,46 +85533,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85738,31 +85600,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85772,31 +85630,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85806,31 +85660,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85840,21 +85690,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85866,65 +85720,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85934,127 +85776,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86066,205 +85920,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86274,91 +86104,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86372,117 +86194,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86492,55 +86326,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86552,47 +86378,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86608,23 +86430,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86638,27 +86460,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86668,73 +86498,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86744,69 +86558,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86816,55 +86618,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86873,176 +86663,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87056,23 +86826,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87086,31 +86856,23 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2698" t="inlineStr"/>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87120,31 +86882,23 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2699" t="inlineStr"/>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87154,31 +86908,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87188,47 +86938,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87240,17 +86998,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87266,17 +87024,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87285,112 +87043,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87400,20 +87158,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87425,26 +87179,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87464,16 +87214,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87490,23 +87244,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87516,13 +87278,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87532,7 +87302,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87542,7 +87312,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87556,29 +87326,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87586,33 +87356,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87626,27 +87400,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87656,25 +87422,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87688,47 +87450,31 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
@@ -87737,24 +87483,24 @@
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
@@ -87770,85 +87516,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87860,81 +87594,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87946,31 +87684,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -87980,27 +87714,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -88010,23 +87752,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88036,23 +87786,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88066,121 +87816,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88190,27 +87944,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88218,21 +87972,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88240,21 +88010,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88262,21 +88048,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88284,25 +88082,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88312,61 +88118,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88378,23 +88208,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88404,21 +88242,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88430,21 +88272,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88456,23 +88302,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88486,87 +88332,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88576,33 +88438,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88614,93 +88476,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88712,89 +88590,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88806,63 +88692,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88874,33 +88764,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88912,29 +88798,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88946,31 +88832,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -88980,23 +88862,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -89010,23 +88892,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89040,23 +88922,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89070,12 +88952,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89086,13 +88968,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89104,53 +88986,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89164,55 +89050,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89224,73 +89106,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89300,106 +89158,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89414,69 +89244,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89486,63 +89308,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89554,165 +89376,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89724,27 +89538,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89754,27 +89572,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89784,59 +89606,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89848,57 +89682,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89912,23 +89738,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89942,7 +89768,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89952,23 +89778,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -89978,11 +89808,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -89994,7 +89828,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -90004,7 +89838,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -90013,14 +89847,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90030,7 +89864,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90039,14 +89873,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90056,7 +89890,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90072,65 +89906,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90140,7 +89958,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90150,85 +89968,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90238,31 +90036,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90272,29 +90062,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90306,91 +90092,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90400,31 +90178,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90434,29 +90204,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90468,7 +90234,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90478,73 +90244,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90554,7 +90296,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90563,16 +90305,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90580,107 +90318,99 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr"/>
+      <c r="C2813" t="inlineStr"/>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2813" t="inlineStr"/>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90690,69 +90420,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
@@ -90768,17 +90510,17 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -90794,17 +90536,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -90820,47 +90562,59 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
@@ -90872,21 +90626,25 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
@@ -90898,21 +90656,25 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -90924,592 +90686,28 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2826">
-      <c r="A2826" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2826" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2826" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
-      <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2827">
-      <c r="A2827" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2827" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2827" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
-      <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2828">
-      <c r="A2828" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2828" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2828" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2829">
-      <c r="A2829" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2829" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2829" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
-      <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2830">
-      <c r="A2830" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2830" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2830" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
-      <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2831">
-      <c r="A2831" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2832">
-      <c r="A2832" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2832" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2832" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
-      <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2833">
-      <c r="A2833" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2833" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2833" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
-      <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2834">
-      <c r="A2834" t="inlineStr"/>
-      <c r="B2834" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2834" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
-      <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
-      <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
-    </row>
-    <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2836" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2836" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2837" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2837" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2838" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2838" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2839">
-      <c r="A2839" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr"/>
-      <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2840">
-      <c r="A2840" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2840" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2840" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
-      <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2841">
-      <c r="A2841" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2841" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2841" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr"/>
-      <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2842">
-      <c r="A2842" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2842" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2842" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
-      <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2843">
-      <c r="A2843" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2843" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2844" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2844" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2845" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2845" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2847"/>
+  <dimension ref="A1:H2826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83163,10 +83163,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83197,10 +83195,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83235,10 +83231,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83269,10 +83263,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83303,10 +83295,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83341,10 +83331,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83375,10 +83363,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83409,10 +83395,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83447,10 +83431,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83481,10 +83463,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83515,10 +83495,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83553,10 +83531,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83587,10 +83563,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83621,10 +83595,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83655,10 +83627,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83689,10 +83659,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83723,10 +83691,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83757,10 +83723,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83787,10 +83751,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83825,10 +83787,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83859,10 +83819,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83897,10 +83855,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83923,10 +83879,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83953,10 +83907,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -83983,10 +83935,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84013,10 +83963,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84043,10 +83991,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84073,10 +84019,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84103,10 +84047,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84133,10 +84075,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84163,10 +84103,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84193,10 +84131,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84223,10 +84159,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84253,10 +84187,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84283,10 +84215,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84317,10 +84247,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84351,10 +84279,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84385,10 +84311,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84419,10 +84343,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84453,10 +84375,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84487,10 +84407,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84517,10 +84435,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84547,10 +84463,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84577,10 +84491,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84611,10 +84523,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84645,10 +84555,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84679,10 +84587,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84717,10 +84623,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84755,10 +84659,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84789,10 +84691,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84827,10 +84727,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84865,10 +84763,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84899,10 +84795,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84937,10 +84831,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -84975,10 +84867,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -85013,10 +84903,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85047,10 +84935,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85081,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85119,10 +85003,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85145,10 +85027,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85179,10 +85059,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85213,10 +85091,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85247,10 +85123,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85285,10 +85159,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85319,10 +85191,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85349,10 +85219,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85379,10 +85247,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85409,10 +85275,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85439,10 +85303,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85469,10 +85331,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85499,10 +85359,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85529,10 +85387,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85559,10 +85415,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85589,10 +85443,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85637,10 +85489,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85671,10 +85521,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85705,46 +85553,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85758,31 +85620,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85792,31 +85650,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85826,31 +85680,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85860,21 +85710,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85886,65 +85740,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85954,127 +85796,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86086,205 +85940,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86294,91 +86124,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86392,117 +86214,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86512,55 +86346,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86572,47 +86398,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86628,23 +86450,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86658,27 +86480,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86688,73 +86518,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86764,69 +86578,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86836,55 +86638,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86893,176 +86683,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87076,23 +86846,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87106,31 +86876,27 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87140,31 +86906,27 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87174,31 +86936,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87208,47 +86966,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87260,17 +87026,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87286,17 +87052,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87305,112 +87071,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87420,20 +87186,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87445,26 +87207,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87484,16 +87242,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87510,23 +87272,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87536,13 +87306,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87552,7 +87330,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87562,7 +87340,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87576,29 +87354,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87606,33 +87384,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87646,27 +87428,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87676,25 +87450,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87708,85 +87478,61 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
@@ -87798,85 +87544,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87888,81 +87622,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -87974,31 +87712,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -88008,27 +87742,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -88038,23 +87780,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88064,23 +87814,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88094,121 +87844,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88218,27 +87972,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88246,21 +88000,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88268,21 +88038,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88290,21 +88076,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88312,25 +88110,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88340,61 +88146,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88406,23 +88236,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88432,21 +88270,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88458,21 +88300,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88484,23 +88330,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88514,87 +88360,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88604,33 +88466,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88642,93 +88504,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88740,89 +88618,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88834,63 +88720,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88902,33 +88792,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88940,29 +88826,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -88974,31 +88860,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -89008,23 +88890,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -89038,23 +88920,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89068,23 +88950,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89098,12 +88980,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89114,13 +88996,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89132,53 +89014,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89192,55 +89078,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89252,73 +89134,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89328,106 +89186,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89442,69 +89272,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89514,63 +89336,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89582,165 +89404,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89752,27 +89566,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89782,27 +89600,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89812,59 +89634,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89876,57 +89710,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89940,23 +89766,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -89970,7 +89796,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -89980,23 +89806,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -90006,11 +89836,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -90022,7 +89856,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -90032,7 +89866,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -90041,14 +89875,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90058,7 +89892,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90067,14 +89901,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90084,7 +89918,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90100,65 +89934,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90168,7 +89986,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90178,85 +89996,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90266,31 +90064,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90300,29 +90090,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90334,91 +90120,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90428,31 +90206,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90462,29 +90232,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90496,7 +90262,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90506,73 +90272,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90582,7 +90324,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90591,16 +90333,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90608,107 +90346,99 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr"/>
+      <c r="C2813" t="inlineStr"/>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2813" t="inlineStr"/>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90718,69 +90448,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
@@ -90796,17 +90538,17 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -90822,17 +90564,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -90848,47 +90590,59 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
@@ -90900,21 +90654,25 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
@@ -90926,21 +90684,25 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -90952,654 +90714,64 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2827">
-      <c r="A2827" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2827" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2827" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
-      <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2828">
-      <c r="A2828" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2828" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2828" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2829">
-      <c r="A2829" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2829" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2829" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
-      <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2830">
-      <c r="A2830" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2830" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2830" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
-      <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2831">
-      <c r="A2831" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B2831" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
-      <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2832">
-      <c r="A2832" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2832" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2832" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
-      <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2833">
-      <c r="A2833" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2833" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2833" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
-      <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2834">
-      <c r="A2834" t="inlineStr"/>
-      <c r="B2834" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2834" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
-      <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
-      <c r="F2835" t="inlineStr"/>
-      <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
-    </row>
-    <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2836" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2836" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2837" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2837" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2838" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2838" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2839">
-      <c r="A2839" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr"/>
-      <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2840">
-      <c r="A2840" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2840" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2840" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
-      <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2841">
-      <c r="A2841" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2841" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2841" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr"/>
-      <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2842">
-      <c r="A2842" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2842" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2842" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
-      <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2843">
-      <c r="A2843" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2843" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2844" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2844" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2845" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2845" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2846">
-      <c r="A2846" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2846" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2846" t="inlineStr">
-        <is>
-          <t>30-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2847">
-      <c r="A2847" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2847" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2847" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2852"/>
+  <dimension ref="A1:H2835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83195,10 +83195,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83229,10 +83227,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83267,10 +83263,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83301,10 +83295,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83335,10 +83327,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83373,10 +83363,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83407,10 +83395,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83441,10 +83427,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83479,10 +83463,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83513,10 +83495,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83547,10 +83527,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83585,10 +83563,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83619,10 +83595,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83653,10 +83627,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83687,10 +83659,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83721,10 +83691,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83755,10 +83723,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83789,10 +83755,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83819,10 +83783,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83857,10 +83819,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83891,10 +83851,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -83929,10 +83887,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -83955,10 +83911,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -83985,10 +83939,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84015,10 +83967,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84045,10 +83995,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84075,10 +84023,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84105,10 +84051,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84135,10 +84079,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84165,10 +84107,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84195,10 +84135,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84225,10 +84163,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84255,10 +84191,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84285,10 +84219,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84315,10 +84247,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84349,10 +84279,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84383,10 +84311,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84417,10 +84343,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84451,10 +84375,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84485,10 +84407,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84519,10 +84439,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84549,10 +84467,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84579,10 +84495,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84609,10 +84523,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84643,10 +84555,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84677,10 +84587,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84711,10 +84619,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84749,10 +84655,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84787,10 +84691,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84821,10 +84723,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84859,10 +84759,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -84897,10 +84795,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -84931,10 +84827,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -84969,10 +84863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -85007,10 +84899,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -85045,10 +84935,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85079,10 +84967,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85113,10 +84999,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85151,10 +85035,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85177,10 +85059,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85211,10 +85091,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85245,10 +85123,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85279,10 +85155,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85317,10 +85191,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85351,10 +85223,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85381,10 +85251,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85411,10 +85279,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85441,10 +85307,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85471,10 +85335,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85501,10 +85363,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85531,10 +85391,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85561,10 +85419,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85591,10 +85447,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85621,10 +85475,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85669,10 +85521,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85703,10 +85553,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85737,46 +85585,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85790,31 +85652,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85824,31 +85682,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85858,31 +85712,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -85892,21 +85742,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -85918,65 +85772,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -85986,127 +85828,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86118,205 +85972,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86326,91 +86156,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86424,117 +86246,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86544,55 +86378,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86604,47 +86430,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86660,23 +86482,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86690,27 +86512,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86720,73 +86550,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86796,69 +86610,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86868,55 +86670,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -86925,176 +86715,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87108,23 +86878,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87138,31 +86908,27 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87172,31 +86938,27 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87206,31 +86968,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87240,47 +86998,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87292,17 +87058,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87318,17 +87084,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87337,112 +87103,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87452,20 +87218,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87477,26 +87239,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87516,16 +87274,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87542,23 +87304,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87568,13 +87338,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87584,7 +87362,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87594,7 +87372,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87608,29 +87386,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87638,33 +87416,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87678,27 +87460,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87708,25 +87482,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87740,85 +87510,61 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
@@ -87830,85 +87576,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -87920,81 +87654,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -88006,31 +87744,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -88040,27 +87774,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -88070,23 +87812,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88096,23 +87846,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88126,121 +87876,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88250,27 +88004,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88278,21 +88032,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88300,21 +88070,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88322,21 +88108,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88344,25 +88142,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88372,61 +88178,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88438,23 +88268,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88464,21 +88302,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88490,21 +88332,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88516,23 +88362,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88546,87 +88392,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88636,33 +88498,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88674,93 +88536,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88772,89 +88650,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88866,63 +88752,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -88934,33 +88824,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -88972,29 +88858,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -89006,31 +88892,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -89040,23 +88922,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -89070,23 +88952,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89100,23 +88982,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89130,12 +89012,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89146,13 +89028,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89164,53 +89046,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89224,55 +89110,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89284,73 +89166,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89360,106 +89218,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89474,69 +89304,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89546,63 +89368,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89614,165 +89436,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89784,27 +89598,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89814,27 +89632,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89844,59 +89666,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -89908,57 +89742,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -89972,23 +89798,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -90002,7 +89828,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -90012,23 +89838,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -90038,11 +89868,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -90054,7 +89888,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -90064,7 +89898,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -90073,14 +89907,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90090,7 +89924,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90099,14 +89933,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90116,7 +89950,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90132,65 +89966,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90200,7 +90018,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90210,85 +90028,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90298,31 +90096,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90332,29 +90122,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90366,91 +90152,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90460,31 +90238,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90494,29 +90264,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90528,7 +90294,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90538,73 +90304,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90614,7 +90356,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90623,16 +90365,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90640,107 +90378,99 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr"/>
+      <c r="C2813" t="inlineStr"/>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2813" t="inlineStr"/>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90750,69 +90480,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
@@ -90828,17 +90570,17 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -90854,17 +90596,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -90880,47 +90622,59 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
@@ -90932,21 +90686,25 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
@@ -90958,21 +90716,25 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -90984,77 +90746,89 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
       <c r="H2827" t="inlineStr">
@@ -91066,31 +90840,27 @@
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
         <is>
           <t>3</t>
@@ -91100,53 +90870,57 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
+      <c r="E2829" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
+      <c r="E2830" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2830" t="inlineStr"/>
       <c r="H2830" t="inlineStr">
         <is>
           <t>3</t>
@@ -91156,75 +90930,99 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
+      <c r="E2832" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2833" t="inlineStr">
         <is>
           <t>2</t>
@@ -91232,558 +91030,52 @@
       </c>
     </row>
     <row r="2834">
-      <c r="A2834" t="inlineStr"/>
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
+      <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2835">
-      <c r="A2835" t="inlineStr">
-        <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
+      <c r="A2835" t="inlineStr"/>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>New Car Registrations YoYJAN</t>
+        </is>
+      </c>
       <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr"/>
+      <c r="E2835" t="inlineStr">
+        <is>
+          <t>-7.1%</t>
+        </is>
+      </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
-    </row>
-    <row r="2836">
-      <c r="A2836" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2836" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2836" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2836" t="inlineStr"/>
-      <c r="E2836" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2837">
-      <c r="A2837" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2837" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2837" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2837" t="inlineStr"/>
-      <c r="E2837" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2838">
-      <c r="A2838" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
-      <c r="B2838" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2838" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2839">
-      <c r="A2839" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2839" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2839" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr"/>
-      <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2840">
-      <c r="A2840" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2840" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2840" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2840" t="inlineStr"/>
-      <c r="E2840" t="inlineStr"/>
-      <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr"/>
-      <c r="H2840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2841">
-      <c r="A2841" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2841" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2841" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2841" t="inlineStr"/>
-      <c r="E2841" t="inlineStr"/>
-      <c r="F2841" t="inlineStr"/>
-      <c r="G2841" t="inlineStr"/>
-      <c r="H2841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2842">
-      <c r="A2842" t="inlineStr">
-        <is>
-          <t>05:20 AM</t>
-        </is>
-      </c>
-      <c r="B2842" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2842" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2842" t="inlineStr"/>
-      <c r="E2842" t="inlineStr"/>
-      <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
-      <c r="H2842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2843">
-      <c r="A2843" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2843" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2843" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2843" t="inlineStr"/>
-      <c r="E2843" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2844" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2844" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B2845" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2845" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2846">
-      <c r="A2846" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2846" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2846" t="inlineStr">
-        <is>
-          <t>30-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2847">
-      <c r="A2847" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2847" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2847" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2848">
-      <c r="A2848" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2848" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2848" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2849">
-      <c r="A2849" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2849" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2850">
-      <c r="A2850" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2850" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2850" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2851">
-      <c r="A2851" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2851" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2851" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2852">
-      <c r="A2852" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2852" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2852" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
+      <c r="H2835" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2866"/>
+  <dimension ref="A1:H2845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83271,10 +83271,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83305,10 +83303,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83343,10 +83339,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83377,10 +83371,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83411,10 +83403,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83449,10 +83439,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83483,10 +83471,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83517,10 +83503,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83555,10 +83539,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83589,10 +83571,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83627,10 +83607,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83665,10 +83643,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83703,10 +83679,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83741,10 +83715,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83775,10 +83747,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83809,10 +83779,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83843,10 +83811,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83881,10 +83847,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83911,10 +83875,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83949,10 +83911,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -83983,10 +83943,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -84021,10 +83979,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -84047,10 +84003,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -84077,10 +84031,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84107,10 +84059,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84137,10 +84087,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84167,10 +84115,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84197,10 +84143,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84227,10 +84171,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84257,10 +84199,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84287,10 +84227,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84317,10 +84255,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84347,10 +84283,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84377,10 +84311,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84407,10 +84339,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84441,10 +84371,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84475,10 +84403,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84509,10 +84435,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84543,10 +84467,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84577,10 +84499,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84615,10 +84535,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84645,10 +84563,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84675,10 +84591,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84705,10 +84619,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84739,10 +84651,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84777,10 +84687,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84811,10 +84719,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84849,10 +84755,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84887,10 +84791,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84925,10 +84827,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -84963,10 +84863,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -85001,10 +84899,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -85035,10 +84931,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -85073,10 +84967,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -85111,10 +85003,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -85149,10 +85039,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85183,10 +85071,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85217,10 +85103,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85255,10 +85139,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85281,10 +85163,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85319,10 +85199,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85357,10 +85235,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85395,10 +85271,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85433,10 +85307,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85467,10 +85339,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85497,10 +85367,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85527,10 +85395,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85557,10 +85423,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85587,10 +85451,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85617,10 +85479,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85647,10 +85507,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85677,10 +85535,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85707,10 +85563,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85737,10 +85591,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85785,10 +85637,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85819,10 +85669,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85853,46 +85701,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85906,31 +85768,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85940,31 +85798,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -85974,31 +85828,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -86008,21 +85858,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -86034,65 +85888,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -86102,127 +85944,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86234,205 +86088,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86442,91 +86272,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86540,117 +86362,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86660,55 +86494,47 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86720,47 +86546,43 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
@@ -86776,23 +86598,23 @@
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2683" t="inlineStr"/>
@@ -86806,27 +86628,35 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2684" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2684" t="inlineStr">
         <is>
           <t>2</t>
@@ -86836,73 +86666,57 @@
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
       <c r="H2686" t="inlineStr">
         <is>
           <t>2</t>
@@ -86912,69 +86726,57 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
       <c r="E2687" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2687" t="inlineStr"/>
       <c r="G2687" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -86984,55 +86786,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -87041,176 +86831,156 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87224,23 +86994,23 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
@@ -87254,31 +87024,27 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87288,31 +87054,27 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87322,31 +87084,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87356,47 +87114,55 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87408,17 +87174,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87434,17 +87200,17 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
@@ -87453,112 +87219,112 @@
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2706" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2706" t="inlineStr"/>
       <c r="G2706" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
       <c r="G2707" t="inlineStr"/>
       <c r="H2707" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87568,20 +87334,16 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
       <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -87593,26 +87355,22 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
       <c r="E2709" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
         <is>
           <t>3</t>
@@ -87632,16 +87390,20 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -87658,23 +87420,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87684,13 +87454,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87700,7 +87478,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87710,7 +87488,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87724,29 +87502,29 @@
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
           <t>3</t>
@@ -87754,33 +87532,37 @@
       </c>
     </row>
     <row r="2715">
-      <c r="A2715" t="inlineStr">
-        <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+      <c r="A2715" t="inlineStr"/>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Balance of Trade PrelJAN</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87794,27 +87576,19 @@
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
@@ -87824,25 +87598,21 @@
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
       <c r="E2718" t="inlineStr">
         <is>
-          <t>1.140%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2718" t="inlineStr"/>
@@ -87856,85 +87626,61 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B2719" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C2719" t="inlineStr">
-        <is>
-          <t>Riyad Bank PMIJAN</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr"/>
+      <c r="C2719" t="inlineStr"/>
       <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2719" t="inlineStr"/>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2720" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2720" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
       <c r="H2720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
@@ -87946,85 +87692,73 @@
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
@@ -88036,81 +87770,85 @@
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2725" t="inlineStr"/>
       <c r="G2725" t="inlineStr"/>
       <c r="H2725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr">
-        <is>
-          <t>1.23%</t>
-        </is>
-      </c>
+      <c r="E2727" t="inlineStr"/>
       <c r="F2727" t="inlineStr"/>
       <c r="G2727" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2727" t="inlineStr">
@@ -88122,31 +87860,27 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
       <c r="E2728" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
+      <c r="G2728" t="inlineStr"/>
       <c r="H2728" t="inlineStr">
         <is>
           <t>3</t>
@@ -88156,27 +87890,35 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2729" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2729" t="inlineStr">
         <is>
           <t>2</t>
@@ -88186,23 +87928,31 @@
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
           <t>3</t>
@@ -88212,23 +87962,23 @@
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
@@ -88242,121 +87992,125 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
       <c r="G2732" t="inlineStr">
         <is>
-          <t>7.6M</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2734" t="inlineStr"/>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
           <t>3</t>
@@ -88366,27 +88120,27 @@
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88394,21 +88148,37 @@
       </c>
     </row>
     <row r="2737">
-      <c r="A2737" t="inlineStr"/>
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
           <t>3</t>
@@ -88416,21 +88186,37 @@
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
           <t>3</t>
@@ -88438,21 +88224,33 @@
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
@@ -88460,25 +88258,33 @@
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
       <c r="E2740" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
           <t>3</t>
@@ -88488,61 +88294,85 @@
     <row r="2741">
       <c r="A2741" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2741" t="inlineStr"/>
-      <c r="C2741" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2741" t="inlineStr"/>
-      <c r="E2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2741" t="inlineStr"/>
       <c r="G2741" t="inlineStr"/>
-      <c r="H2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2742" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
       <c r="H2742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
@@ -88554,23 +88384,31 @@
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2744" t="inlineStr">
         <is>
           <t>2</t>
@@ -88580,21 +88418,25 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
       <c r="G2745" t="inlineStr"/>
       <c r="H2745" t="inlineStr">
@@ -88606,21 +88448,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88632,23 +88478,23 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
       <c r="E2747" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2747" t="inlineStr"/>
@@ -88662,87 +88508,103 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
       <c r="G2748" t="inlineStr"/>
       <c r="H2748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2749" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2749" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
       <c r="E2750" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2750" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2750" t="inlineStr">
         <is>
           <t>3</t>
@@ -88752,33 +88614,33 @@
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2751" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2751" t="inlineStr">
@@ -88790,93 +88652,109 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2752" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2752" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2753" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2754" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2754" t="inlineStr">
@@ -88888,89 +88766,97 @@
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2755" t="inlineStr"/>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
@@ -88982,63 +88868,67 @@
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
-      <c r="F2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2758" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
       <c r="E2759" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2759" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr"/>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
@@ -89050,33 +88940,29 @@
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2760" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2760" t="inlineStr"/>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -89088,29 +88974,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -89122,31 +89008,27 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
-      <c r="G2762" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2762" t="inlineStr"/>
       <c r="H2762" t="inlineStr">
         <is>
           <t>3</t>
@@ -89156,23 +89038,23 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
@@ -89186,23 +89068,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89216,23 +89098,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89246,12 +89128,12 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
@@ -89262,13 +89144,13 @@
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
       <c r="G2766" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2766" t="inlineStr">
@@ -89280,53 +89162,57 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
-      <c r="G2767" t="inlineStr"/>
+      <c r="G2767" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2767" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
@@ -89340,55 +89226,51 @@
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
       <c r="G2769" t="inlineStr"/>
       <c r="H2769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
-      <c r="E2770" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2770" t="inlineStr"/>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
@@ -89400,73 +89282,49 @@
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2771" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="inlineStr"/>
+      <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
           <t>3</t>
@@ -89476,106 +89334,78 @@
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
       <c r="E2775" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2775" t="inlineStr"/>
       <c r="G2775" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89590,69 +89420,61 @@
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2776" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2777" t="inlineStr"/>
-      <c r="G2777" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2777" t="inlineStr"/>
       <c r="H2777" t="inlineStr">
         <is>
           <t>2</t>
@@ -89662,63 +89484,63 @@
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
       <c r="G2778" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
@@ -89730,165 +89552,157 @@
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2780" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
-      <c r="E2784" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2784" t="inlineStr"/>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr"/>
       <c r="H2784" t="inlineStr">
@@ -89900,27 +89714,31 @@
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
       <c r="E2785" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2785" t="inlineStr"/>
-      <c r="G2785" t="inlineStr"/>
+      <c r="G2785" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2785" t="inlineStr">
         <is>
           <t>3</t>
@@ -89930,27 +89748,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -89960,59 +89782,71 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2788" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2788" t="inlineStr">
@@ -90024,57 +89858,49 @@
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
-      <c r="E2789" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2789" t="inlineStr"/>
       <c r="F2789" t="inlineStr"/>
-      <c r="G2789" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2789" t="inlineStr"/>
       <c r="H2789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
       <c r="E2790" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2790" t="inlineStr"/>
@@ -90088,23 +89914,23 @@
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -90118,7 +89944,7 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
@@ -90128,23 +89954,27 @@
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
-      <c r="E2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2792" t="inlineStr"/>
       <c r="G2792" t="inlineStr"/>
       <c r="H2792" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -90154,11 +89984,15 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
@@ -90170,7 +90004,7 @@
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -90180,7 +90014,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
@@ -90189,14 +90023,14 @@
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90206,7 +90040,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90215,14 +90049,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90232,7 +90066,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90248,65 +90082,49 @@
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
-      <c r="E2797" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2797" t="inlineStr"/>
       <c r="F2797" t="inlineStr"/>
-      <c r="G2797" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2797" t="inlineStr"/>
       <c r="H2797" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
           <t>3</t>
@@ -90316,7 +90134,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
@@ -90326,85 +90144,65 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
       <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
-      <c r="G2800" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
           <t>3</t>
@@ -90414,31 +90212,23 @@
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90448,29 +90238,25 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
       <c r="G2803" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2803" t="inlineStr">
@@ -90482,91 +90268,83 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
-      <c r="G2804" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2804" t="inlineStr"/>
       <c r="H2804" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr"/>
+      <c r="G2806" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2806" t="inlineStr">
         <is>
           <t>3</t>
@@ -90576,31 +90354,23 @@
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2807" t="inlineStr"/>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2807" t="inlineStr"/>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90610,29 +90380,25 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
       <c r="G2808" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2808" t="inlineStr">
@@ -90644,7 +90410,7 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
@@ -90654,73 +90420,49 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2809" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="inlineStr"/>
+      <c r="G2809" t="inlineStr"/>
       <c r="H2809" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
@@ -90730,7 +90472,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
@@ -90739,16 +90481,12 @@
       <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2812">
-      <c r="A2812" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2812" t="inlineStr"/>
       <c r="B2812" t="inlineStr">
         <is>
           <t>US</t>
@@ -90756,107 +90494,99 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
       <c r="E2812" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2813" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2813" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr"/>
+      <c r="C2813" t="inlineStr"/>
       <c r="D2813" t="inlineStr"/>
-      <c r="E2813" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2813" t="inlineStr"/>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2813" t="inlineStr"/>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2814" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr"/>
       <c r="E2814" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2814" t="inlineStr"/>
-      <c r="G2814" t="inlineStr"/>
+      <c r="G2814" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2814" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
           <t>3</t>
@@ -90866,69 +90596,81 @@
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
-      <c r="E2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
       <c r="E2817" t="inlineStr"/>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
@@ -90944,17 +90686,17 @@
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -90970,17 +90712,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -90996,47 +90738,59 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
-      <c r="E2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2821" t="inlineStr"/>
-      <c r="G2821" t="inlineStr"/>
+      <c r="G2821" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2821" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
       <c r="G2822" t="inlineStr"/>
       <c r="H2822" t="inlineStr">
@@ -91048,21 +90802,25 @@
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
@@ -91074,21 +90832,25 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -91100,77 +90862,89 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
-      <c r="G2825" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr"/>
+      <c r="G2826" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
       <c r="H2827" t="inlineStr">
@@ -91182,31 +90956,27 @@
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
       <c r="E2828" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2828" t="inlineStr"/>
-      <c r="G2828" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
         <is>
           <t>3</t>
@@ -91216,53 +90986,57 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
-      <c r="E2829" t="inlineStr"/>
+      <c r="E2829" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
       <c r="H2829" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
+      <c r="E2830" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2830" t="inlineStr"/>
-      <c r="G2830" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2830" t="inlineStr"/>
       <c r="H2830" t="inlineStr">
         <is>
           <t>3</t>
@@ -91272,75 +91046,99 @@
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr"/>
+      <c r="G2831" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2831" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
+      <c r="E2832" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2833" t="inlineStr">
         <is>
           <t>2</t>
@@ -91348,73 +91146,81 @@
       </c>
     </row>
     <row r="2834">
-      <c r="A2834" t="inlineStr"/>
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
+      <c r="E2834" t="inlineStr"/>
       <c r="F2834" t="inlineStr"/>
       <c r="G2834" t="inlineStr"/>
       <c r="H2834" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2835" t="inlineStr"/>
-      <c r="C2835" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/31</t>
+        </is>
+      </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
-      <c r="H2835" t="inlineStr"/>
+      <c r="H2835" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
-      <c r="G2836" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2836" t="inlineStr"/>
       <c r="H2836" t="inlineStr">
         <is>
           <t>2</t>
@@ -91424,115 +91230,107 @@
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2837" t="inlineStr"/>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2837" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
-      <c r="E2838" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
+      <c r="E2838" t="inlineStr"/>
       <c r="F2838" t="inlineStr"/>
-      <c r="G2838" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="G2838" t="inlineStr"/>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
+      <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
@@ -91541,24 +91339,24 @@
       <c r="G2840" t="inlineStr"/>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
@@ -91567,24 +91365,24 @@
       <c r="G2841" t="inlineStr"/>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
@@ -91593,64 +91391,56 @@
       <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>A$7.079B</t>
+          <t>38.792K</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2844">
-      <c r="A2844" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A2844" t="inlineStr"/>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>-7.1%</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
@@ -91662,646 +91452,24 @@
       </c>
     </row>
     <row r="2845">
-      <c r="A2845" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A2845" t="inlineStr"/>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2846">
-      <c r="A2846" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2846" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2846" t="inlineStr">
-        <is>
-          <t>30-Year JGB Auction</t>
-        </is>
-      </c>
-      <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr">
-        <is>
-          <t>2.304%</t>
-        </is>
-      </c>
-      <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2847">
-      <c r="A2847" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
-      <c r="B2847" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2847" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2848">
-      <c r="A2848" t="inlineStr">
-        <is>
-          <t>12:30 PM</t>
-        </is>
-      </c>
-      <c r="B2848" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2848" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
-      <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2849">
-      <c r="A2849" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2849" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2849" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2850">
-      <c r="A2850" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2850" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2850" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2851">
-      <c r="A2851" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2851" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2851" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr">
-        <is>
-          <t>37.8</t>
-        </is>
-      </c>
-      <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2852">
-      <c r="A2852" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2852" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2852" t="inlineStr">
-        <is>
-          <t>HCOB Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2853">
-      <c r="A2853" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2853" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2853" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
-      <c r="H2853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2854">
-      <c r="A2854" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2854" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2854" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2855">
-      <c r="A2855" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2855" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2855" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2856">
-      <c r="A2856" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2856" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2856" t="inlineStr">
-        <is>
-          <t>OAT Auction</t>
-        </is>
-      </c>
-      <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr"/>
-      <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2857">
-      <c r="A2857" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2857" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2857" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
-        </is>
-      </c>
-      <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr"/>
-      <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2858">
-      <c r="A2858" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2858" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2858" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2859">
-      <c r="A2859" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2859" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2859" t="inlineStr">
-        <is>
-          <t>BoE Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr">
-        <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2859" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2859" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2860">
-      <c r="A2860" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2860" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2860" t="inlineStr">
-        <is>
-          <t>BoE Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr"/>
-      <c r="F2860" t="inlineStr"/>
-      <c r="G2860" t="inlineStr"/>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2861">
-      <c r="A2861" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2861" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2861" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Cut</t>
-        </is>
-      </c>
-      <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr"/>
-      <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2862">
-      <c r="A2862" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2862" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2862" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Hike</t>
-        </is>
-      </c>
-      <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr"/>
-      <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2863" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Unchanged</t>
-        </is>
-      </c>
-      <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>MPC Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr"/>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2866">
-      <c r="A2866" t="inlineStr"/>
-      <c r="B2866" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2866" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2875"/>
+  <dimension ref="A1:H2857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83315,10 +83315,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H2576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2576" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2577">
@@ -83349,10 +83347,8 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H2577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2577" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2578">
@@ -83387,10 +83383,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2578" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2579">
@@ -83421,10 +83415,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2579" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2579" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2580">
@@ -83455,10 +83447,8 @@
           <t>$-8.82B</t>
         </is>
       </c>
-      <c r="H2580" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2580" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2581">
@@ -83493,10 +83483,8 @@
           <t>$ 23.46B</t>
         </is>
       </c>
-      <c r="H2581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2581" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2582">
@@ -83527,10 +83515,8 @@
           <t>$32.29B</t>
         </is>
       </c>
-      <c r="H2582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2582" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2583">
@@ -83561,10 +83547,8 @@
           <t>$ 23.5B</t>
         </is>
       </c>
-      <c r="H2583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2583" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2584">
@@ -83599,10 +83583,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H2584" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2584" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2585">
@@ -83633,10 +83615,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H2585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2585" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2586">
@@ -83671,10 +83651,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2586" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -83709,10 +83687,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2587" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2588">
@@ -83747,10 +83723,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2588" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2589">
@@ -83785,10 +83759,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H2589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2589" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2590">
@@ -83819,10 +83791,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2590" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2591">
@@ -83853,10 +83823,8 @@
           <t>-4.3%</t>
         </is>
       </c>
-      <c r="H2591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2591" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2592">
@@ -83887,10 +83855,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2592" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2593">
@@ -83925,10 +83891,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2593" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2594">
@@ -83955,10 +83919,8 @@
       </c>
       <c r="F2594" t="inlineStr"/>
       <c r="G2594" t="inlineStr"/>
-      <c r="H2594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2594" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2595">
@@ -83993,10 +83955,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2595" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2595" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2596">
@@ -84027,10 +83987,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2596" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2596" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2597">
@@ -84065,10 +84023,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2597" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2597" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2598">
@@ -84091,10 +84047,8 @@
       <c r="E2598" t="inlineStr"/>
       <c r="F2598" t="inlineStr"/>
       <c r="G2598" t="inlineStr"/>
-      <c r="H2598" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2598" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2599">
@@ -84121,10 +84075,8 @@
       </c>
       <c r="F2599" t="inlineStr"/>
       <c r="G2599" t="inlineStr"/>
-      <c r="H2599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2599" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2600">
@@ -84151,10 +84103,8 @@
       </c>
       <c r="F2600" t="inlineStr"/>
       <c r="G2600" t="inlineStr"/>
-      <c r="H2600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2600" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2601">
@@ -84181,10 +84131,8 @@
       </c>
       <c r="F2601" t="inlineStr"/>
       <c r="G2601" t="inlineStr"/>
-      <c r="H2601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2601" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2602">
@@ -84211,10 +84159,8 @@
       </c>
       <c r="F2602" t="inlineStr"/>
       <c r="G2602" t="inlineStr"/>
-      <c r="H2602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2602" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2603">
@@ -84241,10 +84187,8 @@
       </c>
       <c r="F2603" t="inlineStr"/>
       <c r="G2603" t="inlineStr"/>
-      <c r="H2603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2603" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2604">
@@ -84271,10 +84215,8 @@
       </c>
       <c r="F2604" t="inlineStr"/>
       <c r="G2604" t="inlineStr"/>
-      <c r="H2604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2604" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2605">
@@ -84301,10 +84243,8 @@
       </c>
       <c r="F2605" t="inlineStr"/>
       <c r="G2605" t="inlineStr"/>
-      <c r="H2605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2605" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2606">
@@ -84331,10 +84271,8 @@
       </c>
       <c r="F2606" t="inlineStr"/>
       <c r="G2606" t="inlineStr"/>
-      <c r="H2606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2606" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2607">
@@ -84361,10 +84299,8 @@
       </c>
       <c r="F2607" t="inlineStr"/>
       <c r="G2607" t="inlineStr"/>
-      <c r="H2607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2607" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2608">
@@ -84391,10 +84327,8 @@
       </c>
       <c r="F2608" t="inlineStr"/>
       <c r="G2608" t="inlineStr"/>
-      <c r="H2608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2608" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2609">
@@ -84421,10 +84355,8 @@
       </c>
       <c r="F2609" t="inlineStr"/>
       <c r="G2609" t="inlineStr"/>
-      <c r="H2609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2610">
@@ -84451,10 +84383,8 @@
       </c>
       <c r="F2610" t="inlineStr"/>
       <c r="G2610" t="inlineStr"/>
-      <c r="H2610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2611">
@@ -84485,10 +84415,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2612">
@@ -84519,10 +84447,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2613">
@@ -84553,10 +84479,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2614">
@@ -84587,10 +84511,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2615">
@@ -84621,10 +84543,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2616">
@@ -84659,10 +84579,8 @@
           <t>BRL-75.0B</t>
         </is>
       </c>
-      <c r="H2616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2617">
@@ -84689,10 +84607,8 @@
       </c>
       <c r="F2617" t="inlineStr"/>
       <c r="G2617" t="inlineStr"/>
-      <c r="H2617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2618">
@@ -84719,10 +84635,8 @@
       </c>
       <c r="F2618" t="inlineStr"/>
       <c r="G2618" t="inlineStr"/>
-      <c r="H2618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2619">
@@ -84749,10 +84663,8 @@
       </c>
       <c r="F2619" t="inlineStr"/>
       <c r="G2619" t="inlineStr"/>
-      <c r="H2619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2620">
@@ -84783,10 +84695,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2621">
@@ -84821,10 +84731,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2622">
@@ -84855,10 +84763,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2623">
@@ -84893,10 +84799,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2623" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2623" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2624">
@@ -84931,10 +84835,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2624" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2624" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2625">
@@ -84969,10 +84871,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2626">
@@ -85007,10 +84907,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2627">
@@ -85045,10 +84943,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2628">
@@ -85079,10 +84975,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2628" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2628" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2629">
@@ -85117,10 +85011,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2629" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2629" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2630">
@@ -85155,10 +85047,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2630" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2630" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2631">
@@ -85193,10 +85083,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2631" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2631" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2632">
@@ -85227,10 +85115,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2633">
@@ -85261,10 +85147,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2633" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2634">
@@ -85299,10 +85183,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2635">
@@ -85325,10 +85207,8 @@
       <c r="E2635" t="inlineStr"/>
       <c r="F2635" t="inlineStr"/>
       <c r="G2635" t="inlineStr"/>
-      <c r="H2635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2635" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2636">
@@ -85363,10 +85243,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2637">
@@ -85401,10 +85279,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2638">
@@ -85439,10 +85315,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2639">
@@ -85477,10 +85351,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2640">
@@ -85511,10 +85383,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2641">
@@ -85541,10 +85411,8 @@
       </c>
       <c r="F2641" t="inlineStr"/>
       <c r="G2641" t="inlineStr"/>
-      <c r="H2641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2641" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2642">
@@ -85571,10 +85439,8 @@
       </c>
       <c r="F2642" t="inlineStr"/>
       <c r="G2642" t="inlineStr"/>
-      <c r="H2642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2642" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2643">
@@ -85601,10 +85467,8 @@
           <t>MXN-1120.0B</t>
         </is>
       </c>
-      <c r="H2643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2643" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2644">
@@ -85631,10 +85495,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H2644" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2644" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2645">
@@ -85661,10 +85523,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2645" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2645" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2646">
@@ -85691,10 +85551,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2646" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2646" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2647">
@@ -85721,10 +85579,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2647" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2647" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2648">
@@ -85751,10 +85607,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2648" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2648" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2649">
@@ -85781,10 +85635,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2649" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2649" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2650">
@@ -85829,10 +85681,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2651" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2651" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2652">
@@ -85863,10 +85713,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2652" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2653">
@@ -85897,46 +85745,60 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2653" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2654">
       <c r="A2654" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2654" t="inlineStr"/>
-      <c r="C2654" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMJAN</t>
+        </is>
+      </c>
       <c r="D2654" t="inlineStr"/>
-      <c r="E2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>1.03%</t>
+        </is>
+      </c>
       <c r="F2654" t="inlineStr"/>
       <c r="G2654" t="inlineStr"/>
-      <c r="H2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2655">
       <c r="A2655" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2655" t="inlineStr"/>
       <c r="E2655" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2655" t="inlineStr"/>
@@ -85950,31 +85812,27 @@
     <row r="2656">
       <c r="A2656" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2656" t="inlineStr"/>
       <c r="E2656" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2656" t="inlineStr"/>
-      <c r="G2656" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="G2656" t="inlineStr"/>
       <c r="H2656" t="inlineStr">
         <is>
           <t>3</t>
@@ -85984,31 +85842,27 @@
     <row r="2657">
       <c r="A2657" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2657" t="inlineStr"/>
       <c r="E2657" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2657" t="inlineStr"/>
-      <c r="G2657" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2657" t="inlineStr"/>
       <c r="H2657" t="inlineStr">
         <is>
           <t>3</t>
@@ -86018,31 +85872,27 @@
     <row r="2658">
       <c r="A2658" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2658" t="inlineStr"/>
       <c r="E2658" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>28.52%</t>
         </is>
       </c>
       <c r="F2658" t="inlineStr"/>
-      <c r="G2658" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2658" t="inlineStr"/>
       <c r="H2658" t="inlineStr">
         <is>
           <t>3</t>
@@ -86052,21 +85902,25 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2659" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2659" t="inlineStr"/>
-      <c r="E2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>-25.3K</t>
+        </is>
+      </c>
       <c r="F2659" t="inlineStr"/>
       <c r="G2659" t="inlineStr"/>
       <c r="H2659" t="inlineStr">
@@ -86078,65 +85932,53 @@
     <row r="2660">
       <c r="A2660" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2660" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2660" t="inlineStr"/>
-      <c r="E2660" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
+      <c r="E2660" t="inlineStr"/>
       <c r="F2660" t="inlineStr"/>
-      <c r="G2660" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G2660" t="inlineStr"/>
       <c r="H2660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2661">
       <c r="A2661" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2661" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2661" t="inlineStr"/>
       <c r="E2661" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2661" t="inlineStr"/>
-      <c r="G2661" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2661" t="inlineStr"/>
       <c r="H2661" t="inlineStr">
         <is>
           <t>2</t>
@@ -86146,127 +85988,139 @@
     <row r="2662">
       <c r="A2662" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2662" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2662" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2662" t="inlineStr"/>
       <c r="E2662" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2662" t="inlineStr"/>
       <c r="G2662" t="inlineStr"/>
       <c r="H2662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2663">
       <c r="A2663" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2663" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2663" t="inlineStr"/>
       <c r="E2663" t="inlineStr">
         <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2663" t="inlineStr"/>
-      <c r="G2663" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="G2663" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="H2663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2664">
       <c r="A2664" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2664" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2664" t="inlineStr"/>
       <c r="E2664" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2664" t="inlineStr"/>
+          <t>42.5</t>
+        </is>
+      </c>
+      <c r="F2664" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
       <c r="G2664" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="H2664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2665">
       <c r="A2665" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2665" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2665" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2665" t="inlineStr"/>
       <c r="E2665" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="F2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="G2665" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="H2665" t="inlineStr">
@@ -86278,205 +86132,181 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2666" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2666" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2666" t="inlineStr"/>
       <c r="E2666" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2666" t="inlineStr"/>
       <c r="G2666" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H2666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2667">
       <c r="A2667" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2667" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2667" t="inlineStr"/>
       <c r="E2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="G2667" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="H2667" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2668" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2668" t="inlineStr"/>
-      <c r="E2668" t="inlineStr">
-        <is>
-          <t>1.57%</t>
-        </is>
-      </c>
+      <c r="E2668" t="inlineStr"/>
       <c r="F2668" t="inlineStr"/>
-      <c r="G2668" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2668" t="inlineStr"/>
       <c r="H2668" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2669">
       <c r="A2669" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2669" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2669" t="inlineStr"/>
       <c r="E2669" t="inlineStr">
         <is>
-          <t>2.26%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2669" t="inlineStr"/>
-      <c r="G2669" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="G2669" t="inlineStr"/>
       <c r="H2669" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2670">
       <c r="A2670" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2670" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2670" t="inlineStr"/>
-      <c r="E2670" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
+      <c r="E2670" t="inlineStr"/>
       <c r="F2670" t="inlineStr"/>
-      <c r="G2670" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2670" t="inlineStr"/>
       <c r="H2670" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2671">
       <c r="A2671" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2671" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2671" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>CPI FlashJAN</t>
         </is>
       </c>
       <c r="D2671" t="inlineStr"/>
       <c r="E2671" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>127.07</t>
         </is>
       </c>
       <c r="F2671" t="inlineStr"/>
-      <c r="G2671" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
+      <c r="G2671" t="inlineStr"/>
       <c r="H2671" t="inlineStr">
         <is>
           <t>3</t>
@@ -86486,91 +86316,83 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2672" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2672" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2672" t="inlineStr"/>
       <c r="E2672" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2672" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2672" t="inlineStr"/>
+      <c r="G2672" t="inlineStr"/>
       <c r="H2672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2673" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2673" t="inlineStr"/>
       <c r="E2673" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2673" t="inlineStr"/>
       <c r="G2673" t="inlineStr"/>
       <c r="H2673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2674" t="inlineStr"/>
       <c r="E2674" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2674" t="inlineStr"/>
@@ -86584,117 +86406,129 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2675" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2675" t="inlineStr"/>
       <c r="E2675" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2675" t="inlineStr"/>
       <c r="G2675" t="inlineStr"/>
       <c r="H2675" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2676" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2676" t="inlineStr"/>
       <c r="E2676" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2676" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2677" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2677" t="inlineStr"/>
       <c r="E2677" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2678" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2678" t="inlineStr"/>
       <c r="E2678" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2678" t="inlineStr">
         <is>
           <t>3</t>
@@ -86704,25 +86538,21 @@
     <row r="2679">
       <c r="A2679" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2679" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2679" t="inlineStr"/>
       <c r="F2679" t="inlineStr"/>
       <c r="G2679" t="inlineStr"/>
       <c r="H2679" t="inlineStr">
@@ -86734,25 +86564,21 @@
     <row r="2680">
       <c r="A2680" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2680" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2680" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2680" t="inlineStr"/>
       <c r="F2680" t="inlineStr"/>
       <c r="G2680" t="inlineStr"/>
       <c r="H2680" t="inlineStr">
@@ -86764,83 +86590,91 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2681" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2681" t="inlineStr"/>
       <c r="F2681" t="inlineStr"/>
       <c r="G2681" t="inlineStr"/>
       <c r="H2681" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2682" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr"/>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
       <c r="F2682" t="inlineStr"/>
       <c r="G2682" t="inlineStr"/>
       <c r="H2682" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2683">
       <c r="A2683" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2683" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2683" t="inlineStr"/>
       <c r="E2683" t="inlineStr">
         <is>
-          <t>53.3</t>
-        </is>
-      </c>
-      <c r="F2683" t="inlineStr"/>
-      <c r="G2683" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2683" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2683" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2683" t="inlineStr">
         <is>
           <t>2</t>
@@ -86850,65 +86684,57 @@
     <row r="2684">
       <c r="A2684" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2684" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2684" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2684" t="inlineStr"/>
       <c r="E2684" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="F2684" t="inlineStr"/>
       <c r="G2684" t="inlineStr"/>
       <c r="H2684" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2685" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2685" t="inlineStr"/>
       <c r="E2685" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2685" t="inlineStr">
-        <is>
           <t>45.3</t>
         </is>
       </c>
-      <c r="G2685" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
       <c r="H2685" t="inlineStr">
         <is>
           <t>2</t>
@@ -86918,107 +86744,83 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2686" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2686" t="inlineStr"/>
       <c r="E2686" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2686" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2686" t="inlineStr"/>
       <c r="G2686" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2686" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2687" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2687" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2687" t="inlineStr"/>
-      <c r="E2687" t="inlineStr">
-        <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="G2687" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+      <c r="E2687" t="inlineStr"/>
+      <c r="F2687" t="inlineStr"/>
+      <c r="G2687" t="inlineStr"/>
       <c r="H2687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2688" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2688" t="inlineStr"/>
       <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2688" t="inlineStr"/>
       <c r="H2688" t="inlineStr">
         <is>
           <t>3</t>
@@ -87028,55 +86830,43 @@
     <row r="2689">
       <c r="A2689" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2689" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2689" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2689" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
       <c r="H2689" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2690">
       <c r="A2690" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2690" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2690" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2690" t="inlineStr"/>
@@ -87085,32 +86875,28 @@
       <c r="G2690" t="inlineStr"/>
       <c r="H2690" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2691">
       <c r="A2691" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2691" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2691" t="inlineStr"/>
       <c r="F2691" t="inlineStr"/>
       <c r="G2691" t="inlineStr"/>
       <c r="H2691" t="inlineStr">
@@ -87120,25 +86906,29 @@
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2692" t="inlineStr"/>
       <c r="B2692" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>41.27K</t>
+        </is>
+      </c>
       <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2692" t="inlineStr">
         <is>
           <t>2</t>
@@ -87148,113 +86938,93 @@
     <row r="2693">
       <c r="A2693" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B2693" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2693" t="inlineStr">
-        <is>
-          <t>CPI FlashJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr"/>
+      <c r="C2693" t="inlineStr"/>
       <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr">
-        <is>
-          <t>127.07</t>
-        </is>
-      </c>
+      <c r="E2693" t="inlineStr"/>
       <c r="F2693" t="inlineStr"/>
       <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2694" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E2694" t="inlineStr"/>
       <c r="F2694" t="inlineStr"/>
       <c r="G2694" t="inlineStr"/>
       <c r="H2694" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2695" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2695" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2695" t="inlineStr"/>
       <c r="E2695" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2695" t="inlineStr"/>
       <c r="G2695" t="inlineStr"/>
       <c r="H2695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2696" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2696" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2696" t="inlineStr"/>
       <c r="E2696" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2696" t="inlineStr"/>
@@ -87268,27 +87038,31 @@
     <row r="2697">
       <c r="A2697" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2697" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2697" t="inlineStr"/>
       <c r="E2697" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2697" t="inlineStr"/>
-      <c r="G2697" t="inlineStr"/>
+      <c r="G2697" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="H2697" t="inlineStr">
         <is>
           <t>3</t>
@@ -87298,31 +87072,27 @@
     <row r="2698">
       <c r="A2698" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2698" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2698" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2698" t="inlineStr"/>
       <c r="E2698" t="inlineStr">
         <is>
-          <t>$232.2B</t>
+          <t>3.08%</t>
         </is>
       </c>
       <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2698" t="inlineStr"/>
       <c r="H2698" t="inlineStr">
         <is>
           <t>3</t>
@@ -87332,31 +87102,27 @@
     <row r="2699">
       <c r="A2699" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2699" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2699" t="inlineStr"/>
       <c r="E2699" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2699" t="inlineStr"/>
       <c r="H2699" t="inlineStr">
         <is>
           <t>3</t>
@@ -87366,31 +87132,27 @@
     <row r="2700">
       <c r="A2700" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2700" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2700" t="inlineStr"/>
       <c r="E2700" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2700" t="inlineStr"/>
       <c r="H2700" t="inlineStr">
         <is>
           <t>3</t>
@@ -87400,7 +87162,7 @@
     <row r="2701">
       <c r="A2701" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2701" t="inlineStr">
@@ -87410,11 +87172,15 @@
       </c>
       <c r="C2701" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2701" t="inlineStr"/>
       <c r="G2701" t="inlineStr"/>
       <c r="H2701" t="inlineStr">
@@ -87426,21 +87192,25 @@
     <row r="2702">
       <c r="A2702" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2702" t="inlineStr"/>
       <c r="G2702" t="inlineStr"/>
       <c r="H2702" t="inlineStr">
@@ -87452,17 +87222,17 @@
     <row r="2703">
       <c r="A2703" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2703" t="inlineStr"/>
@@ -87478,25 +87248,21 @@
     <row r="2704">
       <c r="A2704" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
+      <c r="E2704" t="inlineStr"/>
       <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr">
@@ -87508,91 +87274,91 @@
     <row r="2705">
       <c r="A2705" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2705" t="inlineStr"/>
       <c r="E2705" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2705" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="F2705" t="inlineStr"/>
       <c r="G2705" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2706" t="inlineStr"/>
       <c r="E2706" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F2706" t="inlineStr"/>
-      <c r="G2706" t="inlineStr"/>
+      <c r="G2706" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2706" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2707">
       <c r="A2707" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2707" t="inlineStr"/>
       <c r="E2707" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2707" t="inlineStr"/>
@@ -87606,7 +87372,7 @@
     <row r="2708">
       <c r="A2708" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B2708" t="inlineStr">
@@ -87616,21 +87382,13 @@
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E2708" t="inlineStr"/>
       <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2708" t="inlineStr"/>
       <c r="H2708" t="inlineStr">
         <is>
           <t>3</t>
@@ -87645,16 +87403,20 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2709" t="inlineStr"/>
-      <c r="E2709" t="inlineStr"/>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="F2709" t="inlineStr"/>
       <c r="G2709" t="inlineStr"/>
       <c r="H2709" t="inlineStr">
@@ -87676,23 +87438,27 @@
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2710" t="inlineStr"/>
       <c r="E2710" t="inlineStr"/>
       <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2710" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2711" t="inlineStr">
@@ -87702,23 +87468,31 @@
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2711" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2712" t="inlineStr">
@@ -87728,13 +87502,21 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2712" t="inlineStr">
         <is>
           <t>3</t>
@@ -87744,7 +87526,7 @@
     <row r="2713">
       <c r="A2713" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2713" t="inlineStr">
@@ -87754,7 +87536,7 @@
       </c>
       <c r="C2713" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2713" t="inlineStr"/>
@@ -87763,68 +87545,76 @@
       <c r="G2713" t="inlineStr"/>
       <c r="H2713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2714">
-      <c r="A2714" t="inlineStr"/>
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>08:40 PM</t>
+        </is>
+      </c>
       <c r="B2714" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2714" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2714" t="inlineStr"/>
       <c r="E2714" t="inlineStr">
         <is>
-          <t>41.27K</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2714" t="inlineStr"/>
       <c r="H2714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2715" t="inlineStr"/>
-      <c r="C2715" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
       <c r="D2715" t="inlineStr"/>
       <c r="E2715" t="inlineStr"/>
       <c r="F2715" t="inlineStr"/>
       <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
+      <c r="A2716" t="inlineStr"/>
       <c r="B2716" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2716" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2716" t="inlineStr"/>
@@ -87833,164 +87623,124 @@
       <c r="G2716" t="inlineStr"/>
       <c r="H2716" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2717">
-      <c r="A2717" t="inlineStr">
-        <is>
-          <t>03:30 AM</t>
-        </is>
-      </c>
+      <c r="A2717" t="inlineStr"/>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2717" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2717" t="inlineStr"/>
       <c r="F2717" t="inlineStr"/>
       <c r="G2717" t="inlineStr"/>
       <c r="H2717" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2718">
-      <c r="A2718" t="inlineStr">
-        <is>
-          <t>09:05 AM</t>
-        </is>
-      </c>
+      <c r="A2718" t="inlineStr"/>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2718" t="inlineStr"/>
-      <c r="E2718" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2718" t="inlineStr"/>
       <c r="F2718" t="inlineStr"/>
       <c r="G2718" t="inlineStr"/>
       <c r="H2718" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2719">
-      <c r="A2719" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
+      <c r="A2719" t="inlineStr"/>
       <c r="B2719" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2719" t="inlineStr"/>
       <c r="E2719" t="inlineStr">
         <is>
-          <t>58.4</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2719" t="inlineStr"/>
       <c r="G2719" t="inlineStr"/>
       <c r="H2719" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2720" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2720" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr"/>
+      <c r="C2720" t="inlineStr"/>
       <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
+      <c r="E2720" t="inlineStr"/>
       <c r="F2720" t="inlineStr"/>
       <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2720" t="inlineStr"/>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B2721" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="E2721" t="inlineStr"/>
       <c r="F2721" t="inlineStr"/>
       <c r="G2721" t="inlineStr"/>
       <c r="H2721" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2722">
       <c r="A2722" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B2722" t="inlineStr">
@@ -88000,15 +87750,11 @@
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2722" t="inlineStr"/>
       <c r="F2722" t="inlineStr"/>
       <c r="G2722" t="inlineStr"/>
       <c r="H2722" t="inlineStr">
@@ -88020,77 +87766,69 @@
     <row r="2723">
       <c r="A2723" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2723" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr">
-        <is>
-          <t>€-172.5B</t>
-        </is>
-      </c>
+      <c r="E2723" t="inlineStr"/>
       <c r="F2723" t="inlineStr"/>
       <c r="G2723" t="inlineStr"/>
       <c r="H2723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2724">
       <c r="A2724" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2724" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2724" t="inlineStr"/>
-      <c r="E2724" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
+      <c r="E2724" t="inlineStr"/>
       <c r="F2724" t="inlineStr"/>
       <c r="G2724" t="inlineStr"/>
       <c r="H2724" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2725">
       <c r="A2725" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2725" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2725" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2725" t="inlineStr"/>
@@ -88106,21 +87844,25 @@
     <row r="2726">
       <c r="A2726" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2726" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2726" t="inlineStr"/>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr">
@@ -88132,31 +87874,27 @@
     <row r="2727">
       <c r="A2727" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2727" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2727" t="inlineStr"/>
       <c r="E2727" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2727" t="inlineStr"/>
       <c r="H2727" t="inlineStr">
         <is>
           <t>3</t>
@@ -88166,29 +87904,25 @@
     <row r="2728">
       <c r="A2728" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2728" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr">
-        <is>
-          <t>7.59%</t>
-        </is>
-      </c>
+      <c r="E2728" t="inlineStr"/>
       <c r="F2728" t="inlineStr"/>
       <c r="G2728" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H2728" t="inlineStr">
@@ -88200,83 +87934,99 @@
     <row r="2729">
       <c r="A2729" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2729" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2729" t="inlineStr"/>
       <c r="E2729" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2729" t="inlineStr"/>
       <c r="G2729" t="inlineStr"/>
       <c r="H2729" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2730">
       <c r="A2730" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2730" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2730" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2730" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2731">
       <c r="A2731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2731" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2731" t="inlineStr"/>
       <c r="E2731" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
+      <c r="G2731" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2731" t="inlineStr">
         <is>
           <t>3</t>
@@ -88286,59 +88036,59 @@
     <row r="2732">
       <c r="A2732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2732" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2732" t="inlineStr"/>
       <c r="H2732" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2733" t="inlineStr"/>
       <c r="E2733" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2733" t="inlineStr"/>
       <c r="G2733" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2733" t="inlineStr">
@@ -88350,29 +88100,29 @@
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2734" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2734" t="inlineStr"/>
       <c r="E2734" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2734" t="inlineStr"/>
       <c r="G2734" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2734" t="inlineStr">
@@ -88384,53 +88134,57 @@
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2735" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2735" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2735" t="inlineStr"/>
       <c r="E2735" t="inlineStr"/>
       <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2735" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>08:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2736" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2736" t="inlineStr"/>
       <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2736" t="inlineStr">
         <is>
           <t>3</t>
@@ -88440,179 +88194,259 @@
     <row r="2737">
       <c r="A2737" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2737" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2737" t="inlineStr"/>
       <c r="E2737" t="inlineStr"/>
       <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
+      <c r="G2737" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2737" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2738">
-      <c r="A2738" t="inlineStr"/>
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2738" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Balance of Trade PrelJAN</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2738" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2738" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2738" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2739">
-      <c r="A2739" t="inlineStr"/>
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2739" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Exports PrelJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2739" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2739" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2739" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2740">
-      <c r="A2740" t="inlineStr"/>
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2740" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2740" t="inlineStr">
         <is>
-          <t>Imports PrelJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2740" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2741">
-      <c r="A2741" t="inlineStr"/>
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B2741" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2741" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2741" t="inlineStr"/>
       <c r="E2741" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F2741" t="inlineStr"/>
-      <c r="G2741" t="inlineStr"/>
+      <c r="G2741" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2741" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2742">
       <c r="A2742" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2742" t="inlineStr"/>
-      <c r="C2742" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMIJAN</t>
+        </is>
+      </c>
       <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2742" t="inlineStr"/>
       <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2743" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2743" t="inlineStr"/>
       <c r="G2743" t="inlineStr"/>
       <c r="H2743" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2744">
       <c r="A2744" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B2744" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2744" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>49.9</t>
+        </is>
+      </c>
       <c r="F2744" t="inlineStr"/>
       <c r="G2744" t="inlineStr"/>
       <c r="H2744" t="inlineStr">
@@ -88624,23 +88458,31 @@
     <row r="2745">
       <c r="A2745" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2745" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
+      <c r="G2745" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2745" t="inlineStr">
         <is>
           <t>2</t>
@@ -88650,21 +88492,25 @@
     <row r="2746">
       <c r="A2746" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2746" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2746" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2746" t="inlineStr"/>
       <c r="G2746" t="inlineStr"/>
       <c r="H2746" t="inlineStr">
@@ -88676,21 +88522,25 @@
     <row r="2747">
       <c r="A2747" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B2747" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr"/>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="F2747" t="inlineStr"/>
       <c r="G2747" t="inlineStr"/>
       <c r="H2747" t="inlineStr">
@@ -88702,23 +88552,23 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2748" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2748" t="inlineStr"/>
       <c r="E2748" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2748" t="inlineStr"/>
@@ -88732,87 +88582,103 @@
     <row r="2749">
       <c r="A2749" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:15 PM</t>
         </is>
       </c>
       <c r="B2749" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2749" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2749" t="inlineStr"/>
       <c r="E2749" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2749" t="inlineStr"/>
       <c r="G2749" t="inlineStr"/>
       <c r="H2749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2750" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2750" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr"/>
-      <c r="F2750" t="inlineStr"/>
+      <c r="E2750" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2750" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2750" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2750" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2751">
       <c r="A2751" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B2751" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2751" t="inlineStr"/>
       <c r="E2751" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2751" t="inlineStr"/>
-      <c r="G2751" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2751" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
+      <c r="G2751" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="H2751" t="inlineStr">
         <is>
           <t>3</t>
@@ -88822,33 +88688,33 @@
     <row r="2752">
       <c r="A2752" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2752" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2752" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2752" t="inlineStr"/>
       <c r="E2752" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F2752" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="G2752" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2752" t="inlineStr">
@@ -88860,93 +88726,109 @@
     <row r="2753">
       <c r="A2753" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2753" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2753" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2753" t="inlineStr"/>
       <c r="E2753" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2753" t="inlineStr"/>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2753" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2753" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2753" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2754" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2754" t="inlineStr"/>
       <c r="E2754" t="inlineStr">
         <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr"/>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2754" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="G2754" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="H2754" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2755">
       <c r="A2755" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2755" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2755" t="inlineStr"/>
       <c r="E2755" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2755" t="inlineStr"/>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2755" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="G2755" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="H2755" t="inlineStr">
@@ -88958,89 +88840,97 @@
     <row r="2756">
       <c r="A2756" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2756" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2756" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2756" t="inlineStr"/>
       <c r="E2756" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="F2756" t="inlineStr"/>
       <c r="G2756" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2756" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2757" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="F2757" t="inlineStr"/>
       <c r="G2757" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="H2757" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2758">
       <c r="A2758" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2758" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2758" t="inlineStr"/>
-      <c r="E2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="F2758" t="inlineStr"/>
       <c r="G2758" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="H2758" t="inlineStr">
@@ -89052,63 +88942,71 @@
     <row r="2759">
       <c r="A2759" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2759" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2759" t="inlineStr"/>
-      <c r="E2759" t="inlineStr"/>
-      <c r="F2759" t="inlineStr"/>
+      <c r="E2759" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2759" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G2759" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="H2759" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2760">
       <c r="A2760" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2760" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2760" t="inlineStr"/>
       <c r="E2760" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2760" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="G2760" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2760" t="inlineStr">
@@ -89120,33 +89018,29 @@
     <row r="2761">
       <c r="A2761" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2761" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2761" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2761" t="inlineStr"/>
       <c r="E2761" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2761" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2761" t="inlineStr"/>
       <c r="G2761" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2761" t="inlineStr">
@@ -89158,29 +89052,29 @@
     <row r="2762">
       <c r="A2762" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2762" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2762" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2762" t="inlineStr"/>
       <c r="E2762" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2762" t="inlineStr"/>
       <c r="G2762" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2762" t="inlineStr">
@@ -89192,31 +89086,27 @@
     <row r="2763">
       <c r="A2763" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2763" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2763" t="inlineStr"/>
       <c r="E2763" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2763" t="inlineStr"/>
-      <c r="G2763" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2763" t="inlineStr"/>
       <c r="H2763" t="inlineStr">
         <is>
           <t>3</t>
@@ -89226,23 +89116,23 @@
     <row r="2764">
       <c r="A2764" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2764" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2764" t="inlineStr"/>
       <c r="E2764" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2764" t="inlineStr"/>
@@ -89256,23 +89146,23 @@
     <row r="2765">
       <c r="A2765" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B2765" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2765" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2765" t="inlineStr"/>
       <c r="E2765" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2765" t="inlineStr"/>
@@ -89286,23 +89176,23 @@
     <row r="2766">
       <c r="A2766" t="inlineStr">
         <is>
-          <t>12:45 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2766" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2766" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2766" t="inlineStr"/>
       <c r="E2766" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2766" t="inlineStr"/>
@@ -89316,12 +89206,12 @@
     <row r="2767">
       <c r="A2767" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2767" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2767" t="inlineStr">
@@ -89332,13 +89222,13 @@
       <c r="D2767" t="inlineStr"/>
       <c r="E2767" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2767" t="inlineStr"/>
       <c r="G2767" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2767" t="inlineStr">
@@ -89350,53 +89240,57 @@
     <row r="2768">
       <c r="A2768" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2768" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2768" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2768" t="inlineStr"/>
       <c r="E2768" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2768" t="inlineStr"/>
-      <c r="G2768" t="inlineStr"/>
+      <c r="G2768" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2768" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2769">
       <c r="A2769" t="inlineStr">
         <is>
-          <t>01:45 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2769" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2769" t="inlineStr"/>
       <c r="E2769" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2769" t="inlineStr"/>
@@ -89410,55 +89304,51 @@
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2770" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2770" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2770" t="inlineStr"/>
       <c r="E2770" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2770" t="inlineStr"/>
       <c r="G2770" t="inlineStr"/>
       <c r="H2770" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2771">
       <c r="A2771" t="inlineStr">
         <is>
-          <t>02:15 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2771" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2771" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2771" t="inlineStr"/>
-      <c r="E2771" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2771" t="inlineStr"/>
       <c r="F2771" t="inlineStr"/>
       <c r="G2771" t="inlineStr"/>
       <c r="H2771" t="inlineStr">
@@ -89470,73 +89360,49 @@
     <row r="2772">
       <c r="A2772" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2772" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2772" t="inlineStr"/>
-      <c r="E2772" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2772" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2772" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="inlineStr"/>
+      <c r="G2772" t="inlineStr"/>
       <c r="H2772" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2773">
       <c r="A2773" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2773" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2773" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2773" t="inlineStr"/>
-      <c r="E2773" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2773" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2773" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="inlineStr"/>
+      <c r="G2773" t="inlineStr"/>
       <c r="H2773" t="inlineStr">
         <is>
           <t>3</t>
@@ -89546,106 +89412,78 @@
     <row r="2774">
       <c r="A2774" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2774" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2774" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2774" t="inlineStr"/>
-      <c r="E2774" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2774" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2774" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="inlineStr"/>
+      <c r="G2774" t="inlineStr"/>
       <c r="H2774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2775">
       <c r="A2775" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2775" t="inlineStr"/>
-      <c r="E2775" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2775" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2775" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2775" t="inlineStr"/>
+      <c r="F2775" t="inlineStr"/>
+      <c r="G2775" t="inlineStr"/>
       <c r="H2775" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2776">
       <c r="A2776" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2776" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2776" t="inlineStr"/>
       <c r="E2776" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2776" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2776" t="inlineStr"/>
       <c r="G2776" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -89660,69 +89498,61 @@
     <row r="2777">
       <c r="A2777" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2777" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2777" t="inlineStr"/>
       <c r="E2777" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2777" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2777" t="inlineStr"/>
       <c r="G2777" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2777" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2778">
       <c r="A2778" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B2778" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2778" t="inlineStr"/>
       <c r="E2778" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2778" t="inlineStr"/>
-      <c r="G2778" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2778" t="inlineStr"/>
       <c r="H2778" t="inlineStr">
         <is>
           <t>2</t>
@@ -89732,63 +89562,63 @@
     <row r="2779">
       <c r="A2779" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2779" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2779" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2779" t="inlineStr"/>
       <c r="E2779" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2779" t="inlineStr"/>
       <c r="G2779" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2779" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2780">
       <c r="A2780" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2780" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2780" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2780" t="inlineStr"/>
       <c r="E2780" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2780" t="inlineStr"/>
       <c r="G2780" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2780" t="inlineStr">
@@ -89800,165 +89630,157 @@
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2781" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2781" t="inlineStr"/>
       <c r="E2781" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2781" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2781" t="inlineStr"/>
       <c r="G2781" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2781" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2782">
       <c r="A2782" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2782" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2782" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2782" t="inlineStr"/>
       <c r="E2782" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2782" t="inlineStr"/>
       <c r="G2782" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2782" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2783">
       <c r="A2783" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2783" t="inlineStr"/>
       <c r="E2783" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2783" t="inlineStr"/>
       <c r="G2783" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2783" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2784">
       <c r="A2784" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2784" t="inlineStr"/>
       <c r="E2784" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2784" t="inlineStr"/>
       <c r="G2784" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2784" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2785">
       <c r="A2785" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2785" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2785" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2785" t="inlineStr"/>
-      <c r="E2785" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2785" t="inlineStr"/>
       <c r="F2785" t="inlineStr"/>
       <c r="G2785" t="inlineStr"/>
       <c r="H2785" t="inlineStr">
@@ -89970,27 +89792,31 @@
     <row r="2786">
       <c r="A2786" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2786" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2786" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2786" t="inlineStr"/>
       <c r="E2786" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
+      <c r="G2786" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2786" t="inlineStr">
         <is>
           <t>3</t>
@@ -90000,27 +89826,31 @@
     <row r="2787">
       <c r="A2787" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2787" t="inlineStr"/>
       <c r="E2787" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2787" t="inlineStr"/>
-      <c r="G2787" t="inlineStr"/>
+      <c r="G2787" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2787" t="inlineStr">
         <is>
           <t>3</t>
@@ -90030,59 +89860,71 @@
     <row r="2788">
       <c r="A2788" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2788" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2788" t="inlineStr"/>
       <c r="E2788" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2788" t="inlineStr"/>
-      <c r="G2788" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2788" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2788" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2788" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2789">
       <c r="A2789" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2789" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2789" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2789" t="inlineStr"/>
       <c r="E2789" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2789" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2789" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2789" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2789" t="inlineStr">
@@ -90094,57 +89936,49 @@
     <row r="2790">
       <c r="A2790" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2790" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2790" t="inlineStr"/>
-      <c r="E2790" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2790" t="inlineStr"/>
       <c r="F2790" t="inlineStr"/>
-      <c r="G2790" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2790" t="inlineStr"/>
       <c r="H2790" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2791">
       <c r="A2791" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2791" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2791" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2791" t="inlineStr"/>
       <c r="E2791" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2791" t="inlineStr"/>
@@ -90158,23 +89992,23 @@
     <row r="2792">
       <c r="A2792" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2792" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2792" t="inlineStr"/>
       <c r="E2792" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2792" t="inlineStr"/>
@@ -90188,7 +90022,7 @@
     <row r="2793">
       <c r="A2793" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2793" t="inlineStr">
@@ -90198,23 +90032,27 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr"/>
-      <c r="E2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2793" t="inlineStr"/>
       <c r="G2793" t="inlineStr"/>
       <c r="H2793" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2794">
       <c r="A2794" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2794" t="inlineStr">
@@ -90224,11 +90062,15 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr"/>
-      <c r="E2794" t="inlineStr"/>
+      <c r="E2794" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2794" t="inlineStr"/>
       <c r="G2794" t="inlineStr"/>
       <c r="H2794" t="inlineStr">
@@ -90240,7 +90082,7 @@
     <row r="2795">
       <c r="A2795" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2795" t="inlineStr">
@@ -90250,7 +90092,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr"/>
@@ -90259,14 +90101,14 @@
       <c r="G2795" t="inlineStr"/>
       <c r="H2795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2796" t="inlineStr">
@@ -90276,7 +90118,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr"/>
@@ -90285,14 +90127,14 @@
       <c r="G2796" t="inlineStr"/>
       <c r="H2796" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2797">
       <c r="A2797" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2797" t="inlineStr">
@@ -90302,7 +90144,7 @@
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr"/>
@@ -90318,65 +90160,49 @@
     <row r="2798">
       <c r="A2798" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2798" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr"/>
-      <c r="E2798" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2798" t="inlineStr"/>
       <c r="F2798" t="inlineStr"/>
-      <c r="G2798" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2798" t="inlineStr"/>
       <c r="H2798" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2799" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr"/>
-      <c r="E2799" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2799" t="inlineStr"/>
       <c r="F2799" t="inlineStr"/>
-      <c r="G2799" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2799" t="inlineStr"/>
       <c r="H2799" t="inlineStr">
         <is>
           <t>3</t>
@@ -90386,7 +90212,7 @@
     <row r="2800">
       <c r="A2800" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2800" t="inlineStr">
@@ -90396,85 +90222,65 @@
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr"/>
-      <c r="E2800" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2800" t="inlineStr"/>
       <c r="F2800" t="inlineStr"/>
       <c r="G2800" t="inlineStr"/>
       <c r="H2800" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2801">
       <c r="A2801" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2801" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr"/>
-      <c r="E2801" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2801" t="inlineStr"/>
       <c r="F2801" t="inlineStr"/>
-      <c r="G2801" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2801" t="inlineStr"/>
       <c r="H2801" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2802">
       <c r="A2802" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2802" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr"/>
-      <c r="E2802" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2802" t="inlineStr"/>
       <c r="F2802" t="inlineStr"/>
-      <c r="G2802" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2802" t="inlineStr"/>
       <c r="H2802" t="inlineStr">
         <is>
           <t>3</t>
@@ -90484,31 +90290,23 @@
     <row r="2803">
       <c r="A2803" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2803" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr"/>
-      <c r="E2803" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2803" t="inlineStr"/>
       <c r="F2803" t="inlineStr"/>
-      <c r="G2803" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2803" t="inlineStr"/>
       <c r="H2803" t="inlineStr">
         <is>
           <t>3</t>
@@ -90518,29 +90316,25 @@
     <row r="2804">
       <c r="A2804" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2804" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr"/>
-      <c r="E2804" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2804" t="inlineStr"/>
       <c r="F2804" t="inlineStr"/>
       <c r="G2804" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2804" t="inlineStr">
@@ -90552,91 +90346,83 @@
     <row r="2805">
       <c r="A2805" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2805" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr"/>
-      <c r="E2805" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2805" t="inlineStr"/>
       <c r="F2805" t="inlineStr"/>
-      <c r="G2805" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2805" t="inlineStr"/>
       <c r="H2805" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2806" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr"/>
-      <c r="E2806" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2806" t="inlineStr"/>
       <c r="F2806" t="inlineStr"/>
-      <c r="G2806" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2806" t="inlineStr"/>
       <c r="H2806" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2807" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr"/>
-      <c r="E2807" t="inlineStr"/>
+      <c r="E2807" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2807" t="inlineStr"/>
-      <c r="G2807" t="inlineStr"/>
+      <c r="G2807" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2807" t="inlineStr">
         <is>
           <t>3</t>
@@ -90646,31 +90432,23 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2808" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr"/>
-      <c r="E2808" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2808" t="inlineStr"/>
       <c r="F2808" t="inlineStr"/>
-      <c r="G2808" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2808" t="inlineStr"/>
       <c r="H2808" t="inlineStr">
         <is>
           <t>3</t>
@@ -90680,29 +90458,25 @@
     <row r="2809">
       <c r="A2809" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2809" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr"/>
-      <c r="E2809" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2809" t="inlineStr"/>
       <c r="F2809" t="inlineStr"/>
       <c r="G2809" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2809" t="inlineStr">
@@ -90714,7 +90488,7 @@
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B2810" t="inlineStr">
@@ -90724,73 +90498,49 @@
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr"/>
-      <c r="E2810" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2810" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2810" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
       <c r="H2810" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2811" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr"/>
-      <c r="E2811" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2811" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2811" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2811" t="inlineStr"/>
+      <c r="F2811" t="inlineStr"/>
+      <c r="G2811" t="inlineStr"/>
       <c r="H2811" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2812" t="inlineStr">
@@ -90800,7 +90550,7 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr"/>
@@ -90809,16 +90559,12 @@
       <c r="G2812" t="inlineStr"/>
       <c r="H2812" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2813">
-      <c r="A2813" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
+      <c r="A2813" t="inlineStr"/>
       <c r="B2813" t="inlineStr">
         <is>
           <t>US</t>
@@ -90826,107 +90572,99 @@
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr"/>
       <c r="E2813" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
       <c r="H2813" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2814" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2814" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 06 2025</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr"/>
+      <c r="C2814" t="inlineStr"/>
       <c r="D2814" t="inlineStr"/>
-      <c r="E2814" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="E2814" t="inlineStr"/>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2814" t="inlineStr"/>
     </row>
     <row r="2815">
       <c r="A2815" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2815" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr"/>
       <c r="E2815" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2815" t="inlineStr"/>
-      <c r="G2815" t="inlineStr"/>
+      <c r="G2815" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2815" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2816">
       <c r="A2816" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2816" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr"/>
       <c r="E2816" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2816" t="inlineStr"/>
-      <c r="G2816" t="inlineStr"/>
+      <c r="G2816" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2816" t="inlineStr">
         <is>
           <t>3</t>
@@ -90936,69 +90674,81 @@
     <row r="2817">
       <c r="A2817" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr"/>
-      <c r="E2817" t="inlineStr"/>
+      <c r="E2817" t="inlineStr">
+        <is>
+          <t>-17.9</t>
+        </is>
+      </c>
       <c r="F2817" t="inlineStr"/>
-      <c r="G2817" t="inlineStr"/>
+      <c r="G2817" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2817" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr"/>
       <c r="E2818" t="inlineStr"/>
       <c r="F2818" t="inlineStr"/>
-      <c r="G2818" t="inlineStr"/>
+      <c r="G2818" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2818" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr"/>
@@ -91014,17 +90764,17 @@
     <row r="2820">
       <c r="A2820" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr"/>
@@ -91040,17 +90790,17 @@
     <row r="2821">
       <c r="A2821" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B2821" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr"/>
@@ -91066,47 +90816,59 @@
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2822" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr"/>
-      <c r="E2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2822" t="inlineStr"/>
-      <c r="G2822" t="inlineStr"/>
+      <c r="G2822" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2822" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2823" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr"/>
-      <c r="E2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
       <c r="H2823" t="inlineStr">
@@ -91118,21 +90880,25 @@
     <row r="2824">
       <c r="A2824" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2824" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr"/>
-      <c r="E2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
       <c r="H2824" t="inlineStr">
@@ -91144,21 +90910,25 @@
     <row r="2825">
       <c r="A2825" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2825" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr"/>
-      <c r="E2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
       <c r="H2825" t="inlineStr">
@@ -91170,77 +90940,89 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B2826" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr"/>
-      <c r="E2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2826" t="inlineStr"/>
-      <c r="G2826" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="G2826" t="inlineStr"/>
       <c r="H2826" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2827" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr"/>
-      <c r="E2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr">
+        <is>
+          <t>-5.4%</t>
+        </is>
+      </c>
       <c r="F2827" t="inlineStr"/>
-      <c r="G2827" t="inlineStr"/>
+      <c r="G2827" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2827" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>Corporate ProfitsNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr"/>
-      <c r="E2828" t="inlineStr"/>
+      <c r="E2828" t="inlineStr">
+        <is>
+          <t>42.9</t>
+        </is>
+      </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
       <c r="H2828" t="inlineStr">
@@ -91252,31 +91034,27 @@
     <row r="2829">
       <c r="A2829" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr"/>
       <c r="E2829" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="F2829" t="inlineStr"/>
-      <c r="G2829" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+      <c r="G2829" t="inlineStr"/>
       <c r="H2829" t="inlineStr">
         <is>
           <t>3</t>
@@ -91286,53 +91064,57 @@
     <row r="2830">
       <c r="A2830" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2830" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>Real Wage Growth YoYNOV</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr"/>
-      <c r="E2830" t="inlineStr"/>
+      <c r="E2830" t="inlineStr">
+        <is>
+          <t>37.8</t>
+        </is>
+      </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
       <c r="H2830" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2831">
       <c r="A2831" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2831" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>HCOB Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr"/>
-      <c r="E2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="F2831" t="inlineStr"/>
-      <c r="G2831" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="G2831" t="inlineStr"/>
       <c r="H2831" t="inlineStr">
         <is>
           <t>3</t>
@@ -91342,75 +91124,99 @@
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2832" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>S&amp;P Global Construction PMIJAN</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr"/>
-      <c r="E2832" t="inlineStr"/>
+      <c r="E2832" t="inlineStr">
+        <is>
+          <t>53.3</t>
+        </is>
+      </c>
       <c r="F2832" t="inlineStr"/>
-      <c r="G2832" t="inlineStr"/>
+      <c r="G2832" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
       <c r="H2832" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2833">
       <c r="A2833" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2833" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>2-Year Bond Auction</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr"/>
-      <c r="E2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F2833" t="inlineStr"/>
-      <c r="G2833" t="inlineStr"/>
+      <c r="G2833" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2833" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2834" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr"/>
+      <c r="E2834" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
+      <c r="G2834" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="H2834" t="inlineStr">
         <is>
           <t>2</t>
@@ -91418,73 +91224,81 @@
       </c>
     </row>
     <row r="2835">
-      <c r="A2835" t="inlineStr"/>
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesJAN</t>
+          <t>OAT Auction</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
-      <c r="E2835" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
+      <c r="E2835" t="inlineStr"/>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr"/>
       <c r="H2835" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>Thursday February 06 2025</t>
-        </is>
-      </c>
-      <c r="B2836" t="inlineStr"/>
-      <c r="C2836" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/31</t>
+        </is>
+      </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr"/>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr"/>
-      <c r="H2836" t="inlineStr"/>
+      <c r="H2836" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Ai Group Industry IndexJAN</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
-      <c r="G2837" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="G2837" t="inlineStr"/>
       <c r="H2837" t="inlineStr">
         <is>
           <t>2</t>
@@ -91494,115 +91308,107 @@
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Ai Group Construction IndexJAN</t>
+          <t>BoE Interest Rate Decision</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2838" t="inlineStr"/>
+          <t>4.75%</t>
+        </is>
+      </c>
+      <c r="F2838" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G2838" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
+          <t>BoE Monetary Policy Report</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
-      <c r="E2839" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
+      <c r="E2839" t="inlineStr"/>
       <c r="F2839" t="inlineStr"/>
-      <c r="G2839" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
+      <c r="G2839" t="inlineStr"/>
       <c r="H2839" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>BoE MPC Vote Cut</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr"/>
       <c r="F2840" t="inlineStr"/>
-      <c r="G2840" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
+      <c r="G2840" t="inlineStr"/>
       <c r="H2840" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Overtime Pay YoYDEC</t>
+          <t>BoE MPC Vote Hike</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
@@ -91611,24 +91417,24 @@
       <c r="G2841" t="inlineStr"/>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
+          <t>BoE MPC Vote Unchanged</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
@@ -91637,24 +91443,24 @@
       <c r="G2842" t="inlineStr"/>
       <c r="H2842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
+          <t>MPC Meeting Minutes</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
@@ -91663,156 +91469,144 @@
       <c r="G2843" t="inlineStr"/>
       <c r="H2843" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Challenger Job CutsJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
       <c r="E2844" t="inlineStr">
         <is>
-          <t>A$7.079B</t>
+          <t>38.792K</t>
         </is>
       </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
+      <c r="G2844" t="inlineStr"/>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Initial Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E2845" t="inlineStr"/>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr"/>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Nonfarm Productivity QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr"/>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>30-Year JGB Auction</t>
+          <t>Unit Labour Costs QoQ PrelQ4</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>2.304%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr"/>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Continuing Jobless ClaimsJAN/25</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr">
-        <is>
-          <t>0.3535%</t>
-        </is>
-      </c>
+      <c r="E2848" t="inlineStr"/>
       <c r="F2848" t="inlineStr"/>
       <c r="G2848" t="inlineStr"/>
       <c r="H2848" t="inlineStr">
@@ -91824,89 +91618,73 @@
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Jobless Claims 4-week AverageFEB/01</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr">
-        <is>
-          <t>-5.4%</t>
-        </is>
-      </c>
+      <c r="E2849" t="inlineStr"/>
       <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2849" t="inlineStr"/>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Ivey PMI s.aJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
+      <c r="E2850" t="inlineStr"/>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr"/>
       <c r="H2850" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
+      <c r="E2851" t="inlineStr"/>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr"/>
       <c r="H2851" t="inlineStr">
@@ -91916,11 +91694,7 @@
       </c>
     </row>
     <row r="2852">
-      <c r="A2852" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
+      <c r="A2852" t="inlineStr"/>
       <c r="B2852" t="inlineStr">
         <is>
           <t>DE</t>
@@ -91928,45 +91702,37 @@
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>-7.1%</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
       <c r="G2852" t="inlineStr"/>
       <c r="H2852" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2853">
-      <c r="A2853" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
+      <c r="A2853" t="inlineStr"/>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>HCOB Construction PMIJAN</t>
+          <t>Vehicle Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2853" t="inlineStr"/>
       <c r="F2853" t="inlineStr"/>
       <c r="G2853" t="inlineStr"/>
       <c r="H2853" t="inlineStr">
@@ -91976,618 +91742,94 @@
       </c>
     </row>
     <row r="2854">
-      <c r="A2854" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
+      <c r="A2854" t="inlineStr"/>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>S&amp;P Global Construction PMIJAN</t>
+          <t>Global Supply Chain Pressure IndexJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr">
-        <is>
-          <t>53.3</t>
-        </is>
-      </c>
+      <c r="E2854" t="inlineStr"/>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr">
-        <is>
-          <t>53.5</t>
-        </is>
-      </c>
+      <c r="G2854" t="inlineStr"/>
       <c r="H2854" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2855">
-      <c r="A2855" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2855" t="inlineStr"/>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>10-Year NTN-F Auction</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E2855" t="inlineStr"/>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2855" t="inlineStr"/>
       <c r="H2855" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2856">
-      <c r="A2856" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2856" t="inlineStr"/>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>2-Year LTN Auction</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="E2856" t="inlineStr"/>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="G2856" t="inlineStr"/>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2857">
-      <c r="A2857" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2857" t="inlineStr"/>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>OAT Auction</t>
+          <t>6-Month LTN Auction</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr"/>
+      <c r="E2857" t="inlineStr">
+        <is>
+          <t>14.5579%</t>
+        </is>
+      </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr"/>
       <c r="H2857" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2858">
-      <c r="A2858" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2858" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2858" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
-        </is>
-      </c>
-      <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr"/>
-      <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2859">
-      <c r="A2859" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2859" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2859" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2860">
-      <c r="A2860" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2860" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2860" t="inlineStr">
-        <is>
-          <t>BoE Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="D2860" t="inlineStr"/>
-      <c r="E2860" t="inlineStr">
-        <is>
-          <t>4.75%</t>
-        </is>
-      </c>
-      <c r="F2860" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G2860" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H2860" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2861">
-      <c r="A2861" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2861" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2861" t="inlineStr">
-        <is>
-          <t>BoE Monetary Policy Report</t>
-        </is>
-      </c>
-      <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr"/>
-      <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2862">
-      <c r="A2862" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2862" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2862" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Cut</t>
-        </is>
-      </c>
-      <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr"/>
-      <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2863">
-      <c r="A2863" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2863" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2863" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Hike</t>
-        </is>
-      </c>
-      <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2864">
-      <c r="A2864" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2864" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2864" t="inlineStr">
-        <is>
-          <t>BoE MPC Vote Unchanged</t>
-        </is>
-      </c>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2865">
-      <c r="A2865" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B2865" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2865" t="inlineStr">
-        <is>
-          <t>MPC Meeting Minutes</t>
-        </is>
-      </c>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2866">
-      <c r="A2866" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2866" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2866" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsJAN</t>
-        </is>
-      </c>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>38.792K</t>
-        </is>
-      </c>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2867">
-      <c r="A2867" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2867" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2867" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
-      <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2868">
-      <c r="A2868" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2868" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2868" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2869" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2869" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ PrelQ4</t>
-        </is>
-      </c>
-      <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2870" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2870" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/25</t>
-        </is>
-      </c>
-      <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
-      <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2871" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2871" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/01</t>
-        </is>
-      </c>
-      <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2872" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2872" t="inlineStr">
-        <is>
-          <t>Ivey PMI s.aJAN</t>
-        </is>
-      </c>
-      <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
-      <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2873">
-      <c r="A2873" t="inlineStr"/>
-      <c r="B2873" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2873" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr">
-        <is>
-          <t>-7.1%</t>
-        </is>
-      </c>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2874">
-      <c r="A2874" t="inlineStr"/>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Vehicle Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2875">
-      <c r="A2875" t="inlineStr"/>
-      <c r="B2875" t="inlineStr">
-        <is>
-          <t>WL</t>
-        </is>
-      </c>
-      <c r="C2875" t="inlineStr">
-        <is>
-          <t>Global Supply Chain Pressure IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
